--- a/docs/black_box_calc.xlsx
+++ b/docs/black_box_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C58AC-BB26-47AA-875A-B801102D0DB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF6619-C8AD-4881-9000-0E29871AA63A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D725192-A6B1-4F08-8A18-803B766D8285}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D725192-A6B1-4F08-8A18-803B766D8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -87,24 +87,6 @@
     <t>600</t>
   </si>
   <si>
-    <t>IN_1</t>
-  </si>
-  <si>
-    <t>XB_1</t>
-  </si>
-  <si>
-    <t>VAL_1</t>
-  </si>
-  <si>
-    <t>NORM_VAL_1</t>
-  </si>
-  <si>
-    <t>LINEAD_VAL_1</t>
-  </si>
-  <si>
-    <t>B_1</t>
-  </si>
-  <si>
     <t>5ce9089b</t>
   </si>
   <si>
@@ -127,6 +109,24 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>NORM_VAL</t>
+  </si>
+  <si>
+    <t>LINEAD_VAL</t>
   </si>
 </sst>
 </file>
@@ -523,24 +523,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCE2E8-BB92-485B-A39E-F2E5D54E99C3}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -557,31 +561,31 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -592,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
@@ -625,12 +629,8 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="P2">
-        <f>IF((H3&lt;(I3 - J3)),0,IF((H3 &gt;(I3 +J3)),1,IF(AND((H3 &gt; (I3-J3)),(H3 &lt; I3)),2*((H3-I3+J3)/(2*J3))^2,1-2*((H3-I3-J3)/(2*J3))^2)))</f>
-        <v>0.72988750000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8602166992</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8602166992</v>
       </c>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,34 +704,34 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5410786860</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5503217263</v>
       </c>
@@ -857,28 +857,28 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5503217263</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
@@ -955,53 +955,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O19" s="3" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P17">
         <f>(L6*N6+L10*N10)/2</f>
         <v>0.51031746031746028</v>
       </c>
-      <c r="Q19">
-        <f>(P19*N13+L2*N2)/2</f>
+      <c r="Q17">
+        <f>(P17*N13+L2*N2)/2</f>
         <v>0.41289078503671489</v>
       </c>
     </row>
-    <row r="20" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20">
+    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <f>(L11*N11+L7*N7)/2</f>
         <v>0.48968253968253966</v>
       </c>
-      <c r="Q20">
-        <f>(P20*N13+L3*N3)/2</f>
+      <c r="Q18">
+        <f>(P18*N13+L3*N3)/2</f>
         <v>0.33710921496328511</v>
       </c>
     </row>

--- a/docs/black_box_calc.xlsx
+++ b/docs/black_box_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF6619-C8AD-4881-9000-0E29871AA63A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D64A97-6150-43CA-9C35-D942D7DC9DAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D725192-A6B1-4F08-8A18-803B766D8285}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D725192-A6B1-4F08-8A18-803B766D8285}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>8602166992</t>
   </si>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,6 +207,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCE2E8-BB92-485B-A39E-F2E5D54E99C3}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +543,9 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,11 +627,11 @@
         <f>IF(MAX($K2:$K3)=MIN($K2:$K3),K2,(K2-MIN($K2:$K3))/(MAX($K2:$K3)-MIN($K2:$K3)))*100</f>
         <v>100</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8602166992</v>
       </c>
@@ -672,11 +673,9 @@
         <f>IF(MAX($K2:$K3)=MIN($K2:$K3),K3,(K3-MIN($K2:$K3))/(MAX($K2:$K3)-MIN($K2:$K3)))*100</f>
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8602166992</v>
       </c>
@@ -693,7 +692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -731,7 +730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,11 +772,11 @@
         <f>IF(MAX($K6:$K7)=MIN($K6:$K7),K6,(K6-MIN($K6:$K7))/(MAX($K6:$K7)-MIN($K6:$K7)))*100</f>
         <v>100</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5410786860</v>
       </c>
@@ -819,11 +818,9 @@
         <f>IF(MAX($K6:$K7)=MIN($K6:$K7),K7,(K7-MIN($K6:$K7))/(MAX($K6:$K7)-MIN($K6:$K7)))*100</f>
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -840,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5503217263</v>
       </c>
@@ -878,7 +875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5503217263</v>
       </c>
@@ -920,11 +917,11 @@
         <f>IF(MAX($K10:$K11)=MIN($K10:$K11),K10,(K10-MIN($K10:$K11))/(MAX($K10:$K11)-MIN($K10:$K11)))*100</f>
         <v>100</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
@@ -951,61 +948,144 @@
         <f>IF(MAX($K10:$K11)=MIN($K10:$K11),K11,(K11-MIN($K10:$K11))/(MAX($K10:$K11)-MIN($K10:$K11)))*100</f>
         <v>100</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="N13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f>(L6*N6+L10*N10)/2</f>
         <v>0.51031746031746028</v>
       </c>
-      <c r="Q17">
-        <f>(P17*N13+L2*N2)/2</f>
+      <c r="L14">
+        <f>K14/SUM($K$14:$K$15)</f>
+        <v>0.51031746031746028</v>
+      </c>
+      <c r="M14">
+        <f>IF(MAX($K14:$K15)=MIN($K14:$K15),K14,(K14-MIN($K14:$K15))/(MAX($K14:$K15)-MIN($K14:$K15)))*100</f>
+        <v>100</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>(L11*N10+L7*N6)/2</f>
+        <v>0.48968253968253966</v>
+      </c>
+      <c r="L15">
+        <f>K15/SUM($K$14:$K$15)</f>
+        <v>0.48968253968253966</v>
+      </c>
+      <c r="M15">
+        <f>IF(MAX($K14:$K15)=MIN($K14:$K15),K15,(K15-MIN($K14:$K15))/(MAX($K14:$K15)-MIN($K14:$K15)))*100</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>(K14*N14+L2*N2)/2</f>
         <v>0.41289078503671489</v>
       </c>
-    </row>
-    <row r="18" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <f>(L11*N11+L7*N7)/2</f>
-        <v>0.48968253968253966</v>
-      </c>
-      <c r="Q18">
-        <f>(P18*N13+L3*N3)/2</f>
+      <c r="L18">
+        <f>K18/SUM($K$18:$K$19)</f>
+        <v>0.55052104671561986</v>
+      </c>
+      <c r="M18">
+        <f>IF(MAX($K18:$K19)=MIN($K18:$K19),K18,(K18-MIN($K18:$K19))/(MAX($K18:$K19)-MIN($K18:$K19)))*100</f>
+        <v>100</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>(K15*N14+L3*N2)/2</f>
         <v>0.33710921496328511</v>
       </c>
+      <c r="L19">
+        <f>K19/SUM($K$18:$K$19)</f>
+        <v>0.44947895328438014</v>
+      </c>
+      <c r="M19">
+        <f>IF(MAX($K18:$K19)=MIN($K18:$K19),K19,(K19-MIN($K18:$K19))/(MAX($K18:$K19)-MIN($K18:$K19)))*100</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N18:N19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
